--- a/Century of death CCB Mapping.xlsx
+++ b/Century of death CCB Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C60D7-32CE-BD4A-AD18-E4A78DDB5EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BADCE9-67DD-6042-9F40-B4A490C0AE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ccb_cause_to_100_year_causes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="250" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="171">
   <si>
     <t>causeCode</t>
   </si>
@@ -542,7 +542,13 @@
     <t>Alzheimer's</t>
   </si>
   <si>
-    <t>Other Neurologic</t>
+    <t>Influenza/Pneumonia</t>
+  </si>
+  <si>
+    <t>Kidney Disease and Diabetes</t>
+  </si>
+  <si>
+    <t>Other Injury</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,12 +607,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,12 +682,189 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -1444,7 +1621,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C3E43C5-97A4-B345-9628-0871C3A58B13}" name="PivotTable26" cacheId="250" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C3E43C5-97A4-B345-9628-0871C3A58B13}" name="PivotTable26" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:F38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -1934,9 +2111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1998,7 +2175,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G2">
@@ -2033,7 +2210,7 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G3">
@@ -2068,7 +2245,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G4">
@@ -2103,7 +2280,7 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G5">
@@ -2138,7 +2315,7 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G6">
@@ -2165,15 +2342,15 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G7">
@@ -2208,7 +2385,7 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G8">
@@ -2243,7 +2420,7 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G9">
@@ -2270,15 +2447,15 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G10">
@@ -2313,7 +2490,7 @@
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G11">
@@ -2348,7 +2525,7 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G12">
@@ -2383,7 +2560,7 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G13">
@@ -2418,7 +2595,7 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G14">
@@ -2453,7 +2630,7 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G15">
@@ -2488,7 +2665,7 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G16">
@@ -2523,7 +2700,7 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G17">
@@ -2558,7 +2735,7 @@
       <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G18">
@@ -2593,7 +2770,7 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G19">
@@ -2628,7 +2805,7 @@
       <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G20">
@@ -2663,7 +2840,7 @@
       <c r="E21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G21">
@@ -2698,7 +2875,7 @@
       <c r="E22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G22">
@@ -2733,7 +2910,7 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G23">
@@ -2768,7 +2945,7 @@
       <c r="E24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G24">
@@ -2803,7 +2980,7 @@
       <c r="E25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G25">
@@ -2838,7 +3015,7 @@
       <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G26">
@@ -2873,7 +3050,7 @@
       <c r="E27" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G27">
@@ -2908,7 +3085,7 @@
       <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G28">
@@ -2943,7 +3120,7 @@
       <c r="E29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G29">
@@ -2978,7 +3155,7 @@
       <c r="E30" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G30">
@@ -3013,7 +3190,7 @@
       <c r="E31" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G31">
@@ -3048,7 +3225,7 @@
       <c r="E32" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G32">
@@ -3083,7 +3260,7 @@
       <c r="E33" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G33">
@@ -3118,7 +3295,7 @@
       <c r="E34" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G34">
@@ -3153,7 +3330,7 @@
       <c r="E35" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G35">
@@ -3180,7 +3357,7 @@
         <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
         <v>94</v>
@@ -3188,7 +3365,7 @@
       <c r="E36" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G36">
@@ -3223,7 +3400,7 @@
       <c r="E37" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G37">
@@ -3258,7 +3435,7 @@
       <c r="E38" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G38">
@@ -3291,9 +3468,9 @@
         <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G39">
@@ -3319,7 +3496,7 @@
       <c r="B40" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" t="s">
         <v>167</v>
       </c>
       <c r="D40" t="s">
@@ -3328,7 +3505,7 @@
       <c r="E40" t="s">
         <v>167</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G40">
@@ -3361,9 +3538,9 @@
         <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G41">
@@ -3398,7 +3575,7 @@
       <c r="E42" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G42">
@@ -3425,16 +3602,16 @@
         <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>24</v>
+        <v>95</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="G43">
         <v>2127</v>
@@ -3468,7 +3645,7 @@
       <c r="E44" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G44">
@@ -3503,7 +3680,7 @@
       <c r="E45" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G45">
@@ -3529,7 +3706,7 @@
       <c r="B46" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" t="s">
         <v>95</v>
       </c>
       <c r="D46" t="s">
@@ -3538,7 +3715,7 @@
       <c r="E46" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G46">
@@ -3564,7 +3741,7 @@
       <c r="B47" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" t="s">
         <v>95</v>
       </c>
       <c r="D47" t="s">
@@ -3573,7 +3750,7 @@
       <c r="E47" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G47">
@@ -3599,7 +3776,7 @@
       <c r="B48" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" t="s">
         <v>124</v>
       </c>
       <c r="D48" t="s">
@@ -3608,7 +3785,7 @@
       <c r="E48" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G48">
@@ -3643,7 +3820,7 @@
       <c r="E49" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G49">
@@ -3678,7 +3855,7 @@
       <c r="E50" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G50">
@@ -3705,7 +3882,7 @@
         <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
         <v>130</v>
@@ -3713,7 +3890,7 @@
       <c r="E51" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G51">
@@ -3740,7 +3917,7 @@
         <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
         <v>130</v>
@@ -3748,7 +3925,7 @@
       <c r="E52" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G52">
@@ -3775,7 +3952,7 @@
         <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
         <v>130</v>
@@ -3783,7 +3960,7 @@
       <c r="E53" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G53">
@@ -3810,7 +3987,7 @@
         <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
         <v>130</v>
@@ -3818,7 +3995,7 @@
       <c r="E54" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G54">
@@ -3853,7 +4030,7 @@
       <c r="E55" t="s">
         <v>130</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G55">
@@ -3888,7 +4065,7 @@
       <c r="E56" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G56">
@@ -3915,7 +4092,7 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
         <v>130</v>
@@ -3923,7 +4100,7 @@
       <c r="E57" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="20" t="s">
         <v>130</v>
       </c>
       <c r="G57">
@@ -3958,7 +4135,7 @@
       <c r="E58" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G58">
@@ -3993,7 +4170,7 @@
       <c r="E59" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G59">
@@ -4028,7 +4205,7 @@
       <c r="E60" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G60">
@@ -4055,42 +4232,61 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Cardiovascular">
-      <formula>NOT(ISERROR(SEARCH("Cardiovascular",F2)))</formula>
+  <conditionalFormatting sqref="F61:F1048576">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="Cardiovascular">
+      <formula>NOT(ISERROR(SEARCH("Cardiovascular",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Injury">
-      <formula>NOT(ISERROR(SEARCH("Injury",F2)))</formula>
+  <conditionalFormatting sqref="F61:F1048576">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Injury">
+      <formula>NOT(ISERROR(SEARCH("Injury",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Other Chronic">
-      <formula>NOT(ISERROR(SEARCH("Other Chronic",F2)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="Other Chronic">
+      <formula>NOT(ISERROR(SEARCH("Other Chronic",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Communicable">
-      <formula>NOT(ISERROR(SEARCH("Communicable",F2)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="Communicable">
+      <formula>NOT(ISERROR(SEARCH("Communicable",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Cancer">
-      <formula>NOT(ISERROR(SEARCH("Cancer",F2)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="Cancer">
+      <formula>NOT(ISERROR(SEARCH("Cancer",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Injury">
+    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="Injury">
       <formula>NOT(ISERROR(SEARCH("Injury",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Other Chronic">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="Other Chronic">
       <formula>NOT(ISERROR(SEARCH("Other Chronic",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Communicable">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="Communicable">
       <formula>NOT(ISERROR(SEARCH("Communicable",F1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Cancer">
+      <formula>NOT(ISERROR(SEARCH("Cancer",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F60">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Cardiovascular">
+      <formula>NOT(ISERROR(SEARCH("Cardiovascular",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F60">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Injury">
+      <formula>NOT(ISERROR(SEARCH("Injury",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Other Chronic">
+      <formula>NOT(ISERROR(SEARCH("Other Chronic",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Communicable">
+      <formula>NOT(ISERROR(SEARCH("Communicable",F2)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Cancer">
-      <formula>NOT(ISERROR(SEARCH("Cancer",F1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Cancer",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Century of death CCB Mapping.xlsx
+++ b/Century of death CCB Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arikhalameyzer/Desktop/CDPH/Project/Project &amp; R/120_years_of_death/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BADCE9-67DD-6042-9F40-B4A490C0AE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0A783-3CFF-BC4C-B432-D195A09EE32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ccb_cause_to_100_year_causes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="173">
   <si>
     <t>causeCode</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>Other Injury</t>
+  </si>
+  <si>
+    <t>Chronic Respiratory</t>
+  </si>
+  <si>
+    <t>COPD</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -2112,8 +2153,8 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2447,7 +2488,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -3707,7 +3748,7 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
         <v>95</v>
@@ -3742,7 +3783,7 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
         <v>95</v>
@@ -4233,40 +4274,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F61:F1048576">
-    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F1048576">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Injury">
+    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="Injury">
       <formula>NOT(ISERROR(SEARCH("Injury",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="Other Chronic">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="Other Chronic">
       <formula>NOT(ISERROR(SEARCH("Other Chronic",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="Communicable">
+    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="Communicable">
       <formula>NOT(ISERROR(SEARCH("Communicable",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="Cancer">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Cancer">
       <formula>NOT(ISERROR(SEARCH("Cancer",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="Cardiovascular">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="Cardiovascular">
       <formula>NOT(ISERROR(SEARCH("Cardiovascular",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="Injury">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Injury">
       <formula>NOT(ISERROR(SEARCH("Injury",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="Other Chronic">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="Other Chronic">
       <formula>NOT(ISERROR(SEARCH("Other Chronic",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="Communicable">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="Communicable">
       <formula>NOT(ISERROR(SEARCH("Communicable",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="Cancer">
+    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="Cancer">
       <formula>NOT(ISERROR(SEARCH("Cancer",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
